--- a/app/static/inventario_calculado.xlsx
+++ b/app/static/inventario_calculado.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,25 +500,35 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Demanda diaria</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Stock mínimo</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Stock seguridad</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Stock máximo</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Mes</t>
         </is>
@@ -559,25 +569,27 @@
       <c r="J2" t="n">
         <v>800000</v>
       </c>
-      <c r="K2" t="n">
-        <v>900000</v>
-      </c>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" s="2" t="n">
         <v>45879</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
+        <v>2840000</v>
+      </c>
+      <c r="O2" t="n">
         <v>2</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>10</v>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>0.5</v>
       </c>
-      <c r="P2" t="n">
+      <c r="R2" t="n">
         <v>10.5</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -618,25 +630,25 @@
       <c r="J3" t="n">
         <v>900000</v>
       </c>
-      <c r="K3" t="n">
-        <v>300000</v>
-      </c>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" s="2" t="n">
         <v>45880</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="n">
         <v>2.666666666666667</v>
       </c>
-      <c r="N3" t="n">
+      <c r="P3" t="n">
         <v>18.66666666666666</v>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>0.9333333333333332</v>
       </c>
-      <c r="P3" t="n">
+      <c r="R3" t="n">
         <v>19.6</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -677,25 +689,25 @@
       <c r="J4" t="n">
         <v>150000</v>
       </c>
-      <c r="K4" t="n">
-        <v>100000</v>
-      </c>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" s="2" t="n">
         <v>45881</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>8.333333333333334</v>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>0.4166666666666667</v>
       </c>
-      <c r="P4" t="n">
+      <c r="R4" t="n">
         <v>8.75</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -736,25 +748,25 @@
       <c r="J5" t="n">
         <v>95000</v>
       </c>
-      <c r="K5" t="n">
-        <v>50000</v>
-      </c>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" s="2" t="n">
         <v>45882</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="n">
         <v>1.166666666666667</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>5.833333333333334</v>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>0.2916666666666667</v>
       </c>
-      <c r="P5" t="n">
+      <c r="R5" t="n">
         <v>6.125000000000001</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -795,25 +807,25 @@
       <c r="J6" t="n">
         <v>98000</v>
       </c>
-      <c r="K6" t="n">
-        <v>890000</v>
-      </c>
+      <c r="K6" t="inlineStr"/>
       <c r="L6" s="2" t="n">
         <v>45883</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="n">
         <v>2.266666666666667</v>
       </c>
-      <c r="N6" t="n">
+      <c r="P6" t="n">
         <v>15.86666666666667</v>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>0.7933333333333334</v>
       </c>
-      <c r="P6" t="n">
+      <c r="R6" t="n">
         <v>16.66</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -854,25 +866,25 @@
       <c r="J7" t="n">
         <v>78000</v>
       </c>
-      <c r="K7" t="n">
-        <v>1000000</v>
-      </c>
+      <c r="K7" t="inlineStr"/>
       <c r="L7" s="2" t="n">
         <v>45884</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="n">
         <v>1.6</v>
       </c>
-      <c r="N7" t="n">
+      <c r="P7" t="n">
         <v>16</v>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>0.8</v>
       </c>
-      <c r="P7" t="n">
+      <c r="R7" t="n">
         <v>16.8</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -913,25 +925,25 @@
       <c r="J8" t="n">
         <v>89000</v>
       </c>
-      <c r="K8" t="n">
-        <v>1200000</v>
-      </c>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" s="2" t="n">
         <v>45885</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="n">
         <v>2</v>
       </c>
-      <c r="N8" t="n">
+      <c r="P8" t="n">
         <v>10</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>0.5</v>
       </c>
-      <c r="P8" t="n">
+      <c r="R8" t="n">
         <v>10.5</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -972,25 +984,25 @@
       <c r="J9" t="n">
         <v>90000</v>
       </c>
-      <c r="K9" t="n">
-        <v>950000</v>
-      </c>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" s="2" t="n">
         <v>45886</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="N9" t="n">
+      <c r="P9" t="n">
         <v>11.66666666666667</v>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>0.5833333333333334</v>
       </c>
-      <c r="P9" t="n">
+      <c r="R9" t="n">
         <v>12.25</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1031,25 +1043,25 @@
       <c r="J10" t="n">
         <v>600000</v>
       </c>
-      <c r="K10" t="n">
-        <v>350000</v>
-      </c>
+      <c r="K10" t="inlineStr"/>
       <c r="L10" s="2" t="n">
         <v>45887</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
         <v>13.33333333333333</v>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="P10" t="n">
+      <c r="R10" t="n">
         <v>14</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1090,25 +1102,25 @@
       <c r="J11" t="n">
         <v>600000</v>
       </c>
-      <c r="K11" t="n">
-        <v>350000</v>
-      </c>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" s="2" t="n">
         <v>45888</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="N11" t="n">
+      <c r="P11" t="n">
         <v>13.33333333333333</v>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="P11" t="n">
+      <c r="R11" t="n">
         <v>14</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1149,25 +1161,25 @@
       <c r="J12" t="n">
         <v>600000</v>
       </c>
-      <c r="K12" t="n">
-        <v>350000</v>
-      </c>
+      <c r="K12" t="inlineStr"/>
       <c r="L12" s="2" t="n">
         <v>45889</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="N12" t="n">
+      <c r="P12" t="n">
         <v>13.33333333333333</v>
       </c>
-      <c r="O12" t="n">
+      <c r="Q12" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="P12" t="n">
+      <c r="R12" t="n">
         <v>14</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1208,25 +1220,25 @@
       <c r="J13" t="n">
         <v>600000</v>
       </c>
-      <c r="K13" t="n">
-        <v>350000</v>
-      </c>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" s="2" t="n">
         <v>45890</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="N13" t="n">
+      <c r="P13" t="n">
         <v>13.33333333333333</v>
       </c>
-      <c r="O13" t="n">
+      <c r="Q13" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="P13" t="n">
+      <c r="R13" t="n">
         <v>14</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1267,25 +1279,25 @@
       <c r="J14" t="n">
         <v>600000</v>
       </c>
-      <c r="K14" t="n">
-        <v>350000</v>
-      </c>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" s="2" t="n">
         <v>45891</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="N14" t="n">
+      <c r="P14" t="n">
         <v>13.33333333333333</v>
       </c>
-      <c r="O14" t="n">
+      <c r="Q14" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="P14" t="n">
+      <c r="R14" t="n">
         <v>14</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>

--- a/app/static/inventario_calculado.xlsx
+++ b/app/static/inventario_calculado.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S14"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,35 +500,25 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 12</t>
+          <t>Demanda diaria</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 13</t>
+          <t>Stock mínimo</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Demanda diaria</t>
+          <t>Stock seguridad</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Stock mínimo</t>
+          <t>Stock máximo</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Stock seguridad</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Stock máximo</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Mes</t>
         </is>
@@ -569,27 +559,25 @@
       <c r="J2" t="n">
         <v>800000</v>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>900000</v>
+      </c>
       <c r="L2" s="2" t="n">
         <v>45879</v>
       </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
       <c r="N2" t="n">
-        <v>2840000</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="P2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R2" t="n">
         <v>10.5</v>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -630,25 +618,25 @@
       <c r="J3" t="n">
         <v>900000</v>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>300000</v>
+      </c>
       <c r="L3" s="2" t="n">
         <v>45880</v>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="N3" t="n">
+        <v>18.66666666666666</v>
+      </c>
       <c r="O3" t="n">
-        <v>2.666666666666667</v>
+        <v>0.9333333333333332</v>
       </c>
       <c r="P3" t="n">
-        <v>18.66666666666666</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.9333333333333332</v>
-      </c>
-      <c r="R3" t="n">
         <v>19.6</v>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -689,25 +677,25 @@
       <c r="J4" t="n">
         <v>150000</v>
       </c>
-      <c r="K4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>100000</v>
+      </c>
       <c r="L4" s="2" t="n">
         <v>45881</v>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="N4" t="n">
+        <v>8.333333333333334</v>
+      </c>
       <c r="O4" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="P4" t="n">
-        <v>8.333333333333334</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="R4" t="n">
         <v>8.75</v>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -748,25 +736,25 @@
       <c r="J5" t="n">
         <v>95000</v>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>50000</v>
+      </c>
       <c r="L5" s="2" t="n">
         <v>45882</v>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="M5" t="n">
+        <v>1.166666666666667</v>
+      </c>
+      <c r="N5" t="n">
+        <v>5.833333333333334</v>
+      </c>
       <c r="O5" t="n">
-        <v>1.166666666666667</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="P5" t="n">
-        <v>5.833333333333334</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.2916666666666667</v>
-      </c>
-      <c r="R5" t="n">
         <v>6.125000000000001</v>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -807,25 +795,25 @@
       <c r="J6" t="n">
         <v>98000</v>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>890000</v>
+      </c>
       <c r="L6" s="2" t="n">
         <v>45883</v>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="M6" t="n">
+        <v>2.266666666666667</v>
+      </c>
+      <c r="N6" t="n">
+        <v>15.86666666666667</v>
+      </c>
       <c r="O6" t="n">
-        <v>2.266666666666667</v>
+        <v>0.7933333333333334</v>
       </c>
       <c r="P6" t="n">
-        <v>15.86666666666667</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.7933333333333334</v>
-      </c>
-      <c r="R6" t="n">
         <v>16.66</v>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -866,25 +854,25 @@
       <c r="J7" t="n">
         <v>78000</v>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1000000</v>
+      </c>
       <c r="L7" s="2" t="n">
         <v>45884</v>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="M7" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="N7" t="n">
+        <v>16</v>
+      </c>
       <c r="O7" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="P7" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="R7" t="n">
         <v>16.8</v>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -925,25 +913,25 @@
       <c r="J8" t="n">
         <v>89000</v>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1200000</v>
+      </c>
       <c r="L8" s="2" t="n">
         <v>45885</v>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>10</v>
+      </c>
       <c r="O8" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="P8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R8" t="n">
         <v>10.5</v>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -984,25 +972,25 @@
       <c r="J9" t="n">
         <v>90000</v>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>950000</v>
+      </c>
       <c r="L9" s="2" t="n">
         <v>45886</v>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="M9" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11.66666666666667</v>
+      </c>
       <c r="O9" t="n">
-        <v>1.666666666666667</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="P9" t="n">
-        <v>11.66666666666667</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="R9" t="n">
         <v>12.25</v>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1043,25 +1031,25 @@
       <c r="J10" t="n">
         <v>600000</v>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>350000</v>
+      </c>
       <c r="L10" s="2" t="n">
         <v>45887</v>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="M10" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="N10" t="n">
+        <v>13.33333333333333</v>
+      </c>
       <c r="O10" t="n">
-        <v>1.333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P10" t="n">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="R10" t="n">
         <v>14</v>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1102,25 +1090,25 @@
       <c r="J11" t="n">
         <v>600000</v>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>350000</v>
+      </c>
       <c r="L11" s="2" t="n">
         <v>45888</v>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="M11" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="N11" t="n">
+        <v>13.33333333333333</v>
+      </c>
       <c r="O11" t="n">
-        <v>1.333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P11" t="n">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="R11" t="n">
         <v>14</v>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1161,25 +1149,25 @@
       <c r="J12" t="n">
         <v>600000</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>350000</v>
+      </c>
       <c r="L12" s="2" t="n">
         <v>45889</v>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="M12" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="N12" t="n">
+        <v>13.33333333333333</v>
+      </c>
       <c r="O12" t="n">
-        <v>1.333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P12" t="n">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="R12" t="n">
         <v>14</v>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1220,25 +1208,25 @@
       <c r="J13" t="n">
         <v>600000</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>350000</v>
+      </c>
       <c r="L13" s="2" t="n">
         <v>45890</v>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13.33333333333333</v>
+      </c>
       <c r="O13" t="n">
-        <v>1.333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P13" t="n">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="R13" t="n">
         <v>14</v>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1279,25 +1267,25 @@
       <c r="J14" t="n">
         <v>600000</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>350000</v>
+      </c>
       <c r="L14" s="2" t="n">
         <v>45891</v>
       </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13.33333333333333</v>
+      </c>
       <c r="O14" t="n">
-        <v>1.333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="P14" t="n">
-        <v>13.33333333333333</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="R14" t="n">
         <v>14</v>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>

--- a/app/static/inventario_calculado.xlsx
+++ b/app/static/inventario_calculado.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,25 +500,30 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>Demanda diaria</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Stock mínimo</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Stock seguridad</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Stock máximo</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Mes</t>
         </is>
@@ -565,19 +570,20 @@
       <c r="L2" s="2" t="n">
         <v>45879</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>2</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>10</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>0.5</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>10.5</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -624,19 +630,20 @@
       <c r="L3" s="2" t="n">
         <v>45880</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>2.666666666666667</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>18.66666666666666</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>0.9333333333333332</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>19.6</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -683,19 +690,20 @@
       <c r="L4" s="2" t="n">
         <v>45881</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>0.8333333333333334</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>8.333333333333334</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>0.4166666666666667</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>8.75</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -742,19 +750,20 @@
       <c r="L5" s="2" t="n">
         <v>45882</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1.166666666666667</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>5.833333333333334</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>0.2916666666666667</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>6.125000000000001</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -801,19 +810,20 @@
       <c r="L6" s="2" t="n">
         <v>45883</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>2.266666666666667</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>15.86666666666667</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>0.7933333333333334</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>16.66</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -860,19 +870,20 @@
       <c r="L7" s="2" t="n">
         <v>45884</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1.6</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>16</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>0.8</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>16.8</v>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -919,19 +930,20 @@
       <c r="L8" s="2" t="n">
         <v>45885</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>2</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>10</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>0.5</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>10.5</v>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -978,19 +990,20 @@
       <c r="L9" s="2" t="n">
         <v>45886</v>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1.666666666666667</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>11.66666666666667</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>0.5833333333333334</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>12.25</v>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1037,19 +1050,20 @@
       <c r="L10" s="2" t="n">
         <v>45887</v>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>13.33333333333333</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>14</v>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1096,19 +1110,20 @@
       <c r="L11" s="2" t="n">
         <v>45888</v>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>13.33333333333333</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>14</v>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1155,19 +1170,20 @@
       <c r="L12" s="2" t="n">
         <v>45889</v>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>13.33333333333333</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>14</v>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1214,19 +1230,20 @@
       <c r="L13" s="2" t="n">
         <v>45890</v>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>13.33333333333333</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>14</v>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
@@ -1273,23 +1290,470 @@
       <c r="L14" s="2" t="n">
         <v>45891</v>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1.333333333333333</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>13.33333333333333</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>0.6666666666666666</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>14</v>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>August 2025</t>
         </is>
       </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>P001</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>teclado</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>30</v>
+      </c>
+      <c r="D15" t="n">
+        <v>48</v>
+      </c>
+      <c r="E15" t="n">
+        <v>25</v>
+      </c>
+      <c r="F15" t="n">
+        <v>60</v>
+      </c>
+      <c r="G15" t="n">
+        <v>90</v>
+      </c>
+      <c r="H15" t="n">
+        <v>30</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5</v>
+      </c>
+      <c r="J15" t="n">
+        <v>89000</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1200000</v>
+      </c>
+      <c r="L15" s="2" t="n">
+        <v>45854</v>
+      </c>
+      <c r="M15" t="n">
+        <v>721000</v>
+      </c>
+      <c r="N15" t="n">
+        <v>2</v>
+      </c>
+      <c r="O15" t="n">
+        <v>10</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>July 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>P002</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>mouse</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>50</v>
+      </c>
+      <c r="D16" t="n">
+        <v>89</v>
+      </c>
+      <c r="E16" t="n">
+        <v>53</v>
+      </c>
+      <c r="F16" t="n">
+        <v>50</v>
+      </c>
+      <c r="G16" t="n">
+        <v>85</v>
+      </c>
+      <c r="H16" t="n">
+        <v>30</v>
+      </c>
+      <c r="I16" t="n">
+        <v>7</v>
+      </c>
+      <c r="J16" t="n">
+        <v>90000</v>
+      </c>
+      <c r="K16" t="n">
+        <v>950000</v>
+      </c>
+      <c r="L16" s="2" t="n">
+        <v>45855</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="O16" t="n">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0.5833333333333334</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>July 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>P003</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>monitor</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>90</v>
+      </c>
+      <c r="D17" t="n">
+        <v>44</v>
+      </c>
+      <c r="E17" t="n">
+        <v>60</v>
+      </c>
+      <c r="F17" t="n">
+        <v>40</v>
+      </c>
+      <c r="G17" t="n">
+        <v>50</v>
+      </c>
+      <c r="H17" t="n">
+        <v>30</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10</v>
+      </c>
+      <c r="J17" t="n">
+        <v>600000</v>
+      </c>
+      <c r="K17" t="n">
+        <v>350000</v>
+      </c>
+      <c r="L17" s="2" t="n">
+        <v>45856</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="O17" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>14</v>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>July 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>P004</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>celular</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>90</v>
+      </c>
+      <c r="D18" t="n">
+        <v>44</v>
+      </c>
+      <c r="E18" t="n">
+        <v>60</v>
+      </c>
+      <c r="F18" t="n">
+        <v>40</v>
+      </c>
+      <c r="G18" t="n">
+        <v>50</v>
+      </c>
+      <c r="H18" t="n">
+        <v>30</v>
+      </c>
+      <c r="I18" t="n">
+        <v>10</v>
+      </c>
+      <c r="J18" t="n">
+        <v>600000</v>
+      </c>
+      <c r="K18" t="n">
+        <v>350000</v>
+      </c>
+      <c r="L18" s="2" t="n">
+        <v>45857</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="O18" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>14</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>July 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>P005</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>bicicleta</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>90</v>
+      </c>
+      <c r="D19" t="n">
+        <v>44</v>
+      </c>
+      <c r="E19" t="n">
+        <v>60</v>
+      </c>
+      <c r="F19" t="n">
+        <v>40</v>
+      </c>
+      <c r="G19" t="n">
+        <v>50</v>
+      </c>
+      <c r="H19" t="n">
+        <v>30</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>600000</v>
+      </c>
+      <c r="K19" t="n">
+        <v>350000</v>
+      </c>
+      <c r="L19" s="2" t="n">
+        <v>45858</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="O19" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>14</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>July 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>P006</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>comida</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>90</v>
+      </c>
+      <c r="D20" t="n">
+        <v>44</v>
+      </c>
+      <c r="E20" t="n">
+        <v>60</v>
+      </c>
+      <c r="F20" t="n">
+        <v>40</v>
+      </c>
+      <c r="G20" t="n">
+        <v>50</v>
+      </c>
+      <c r="H20" t="n">
+        <v>30</v>
+      </c>
+      <c r="I20" t="n">
+        <v>10</v>
+      </c>
+      <c r="J20" t="n">
+        <v>600000</v>
+      </c>
+      <c r="K20" t="n">
+        <v>350000</v>
+      </c>
+      <c r="L20" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="O20" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>14</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>July 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>P007</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>transporte</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>90</v>
+      </c>
+      <c r="D21" t="n">
+        <v>44</v>
+      </c>
+      <c r="E21" t="n">
+        <v>60</v>
+      </c>
+      <c r="F21" t="n">
+        <v>40</v>
+      </c>
+      <c r="G21" t="n">
+        <v>50</v>
+      </c>
+      <c r="H21" t="n">
+        <v>30</v>
+      </c>
+      <c r="I21" t="n">
+        <v>10</v>
+      </c>
+      <c r="J21" t="n">
+        <v>600000</v>
+      </c>
+      <c r="K21" t="n">
+        <v>350000</v>
+      </c>
+      <c r="L21" s="2" t="n">
+        <v>45860</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
+        <v>1.333333333333333</v>
+      </c>
+      <c r="O21" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>14</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>July 2025</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>3179000</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3900000</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
